--- a/inst/extdata/examples/xlsx/impact-no-deal-brexit.xlsx
+++ b/inst/extdata/examples/xlsx/impact-no-deal-brexit.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t xml:space="preserve">tab</t>
   </si>
@@ -48,7 +48,7 @@
     <t xml:space="preserve">y_lab</t>
   </si>
   <si>
-    <t xml:space="preserve">-25;-20; -15; -10; -5; 0; 5</t>
+    <t xml:space="preserve">-25;;-20;; -15;; -10;; -5;; 0;; 5</t>
   </si>
   <si>
     <t xml:space="preserve">y_lab_col</t>
@@ -123,7 +123,7 @@
     <t xml:space="preserve">y_r_lab</t>
   </si>
   <si>
-    <t xml:space="preserve">-5;-4; -3; -2; -1; 0; 1</t>
+    <t xml:space="preserve">-5;;-4;; -3;; -2;; -1;; 0;; 1</t>
   </si>
   <si>
     <t xml:space="preserve">legend_n_per_column</t>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
   </si>
   <si>
     <t xml:space="preserve">Country</t>
@@ -714,7 +720,15 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -732,30 +746,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" t="n">
         <v>-3.748</v>
@@ -778,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -789,7 +803,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
@@ -800,7 +814,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -811,7 +825,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B6" t="n">
         <v>-3.49</v>
@@ -834,7 +848,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7" t="n">
         <v>-1.93</v>
@@ -857,7 +871,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" t="n">
         <v>-1.36</v>
@@ -880,7 +894,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B9" t="n">
         <v>-1.32</v>
@@ -903,7 +917,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B10" t="n">
         <v>-1.28</v>
@@ -926,7 +940,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B11" t="n">
         <v>-1.15</v>
@@ -949,7 +963,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B12" t="n">
         <v>-1.08</v>
@@ -972,7 +986,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B13" t="n">
         <v>-0.85</v>
@@ -995,7 +1009,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B14" t="n">
         <v>-0.62</v>
@@ -1018,7 +1032,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B15" t="n">
         <v>-0.24</v>
@@ -1041,7 +1055,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B16" t="n">
         <v>0.38</v>
@@ -1064,7 +1078,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B17" t="n">
         <v>0.44</v>
@@ -1087,7 +1101,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" t="n">
         <v>0.45</v>
@@ -1110,7 +1124,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="n">
         <v>0.56</v>
